--- a/ER Sigma Fails on New PSX Tools.xlsx
+++ b/ER Sigma Fails on New PSX Tools.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\houl\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\houl\Desktop\WaferMap_Original\WaferViz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66FA386A-6F7B-4397-B30F-C388A1545D56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC32391B-8130-4777-94FA-9ABB2F524126}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10596" yWindow="4272" windowWidth="10992" windowHeight="12216" xr2:uid="{37CEFA91-E5E0-4382-B163-84D42BA35F64}"/>
+    <workbookView xWindow="1560" yWindow="708" windowWidth="20172" windowHeight="12252" xr2:uid="{37CEFA91-E5E0-4382-B163-84D42BA35F64}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -409,7 +409,7 @@
   <dimension ref="A1:L50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -425,16 +425,16 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" t="s">
-        <v>3</v>
       </c>
       <c r="H1" t="s">
         <v>4</v>
@@ -443,10 +443,10 @@
         <v>5</v>
       </c>
       <c r="J1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" t="s">
         <v>6</v>
-      </c>
-      <c r="K1" t="s">
-        <v>5</v>
       </c>
       <c r="L1" t="s">
         <v>6</v>
@@ -463,16 +463,16 @@
         <v>13135.692999999999</v>
       </c>
       <c r="D2">
+        <v>2079.12</v>
+      </c>
+      <c r="E2">
         <v>13145.572</v>
       </c>
-      <c r="E2">
+      <c r="F2">
+        <v>2448.027</v>
+      </c>
+      <c r="G2">
         <v>13144.236000000001</v>
-      </c>
-      <c r="F2">
-        <v>2079.12</v>
-      </c>
-      <c r="G2">
-        <v>2448.027</v>
       </c>
       <c r="H2">
         <v>2122.6480000000001</v>
@@ -481,10 +481,10 @@
         <v>13161.245999999999</v>
       </c>
       <c r="J2">
+        <v>1751.0350000000001</v>
+      </c>
+      <c r="K2">
         <v>13167.418</v>
-      </c>
-      <c r="K2">
-        <v>1751.0350000000001</v>
       </c>
       <c r="L2">
         <v>1779.6130000000001</v>
@@ -501,16 +501,16 @@
         <v>13111.552</v>
       </c>
       <c r="D3">
+        <v>2294.1790000000001</v>
+      </c>
+      <c r="E3">
         <v>13123.633</v>
       </c>
-      <c r="E3">
+      <c r="F3">
+        <v>2630.76</v>
+      </c>
+      <c r="G3">
         <v>13120.323</v>
-      </c>
-      <c r="F3">
-        <v>2294.1790000000001</v>
-      </c>
-      <c r="G3">
-        <v>2630.76</v>
       </c>
       <c r="H3">
         <v>2327.7800000000002</v>
@@ -519,10 +519,10 @@
         <v>13147.782999999999</v>
       </c>
       <c r="J3">
+        <v>1863.7570000000001</v>
+      </c>
+      <c r="K3">
         <v>13151.23</v>
-      </c>
-      <c r="K3">
-        <v>1863.7570000000001</v>
       </c>
       <c r="L3">
         <v>1874.107</v>
@@ -539,16 +539,16 @@
         <v>13116.884</v>
       </c>
       <c r="D4">
+        <v>2278.79</v>
+      </c>
+      <c r="E4">
         <v>13128.002</v>
       </c>
-      <c r="E4">
+      <c r="F4">
+        <v>2587.0219999999999</v>
+      </c>
+      <c r="G4">
         <v>13123.754999999999</v>
-      </c>
-      <c r="F4">
-        <v>2278.79</v>
-      </c>
-      <c r="G4">
-        <v>2587.0219999999999</v>
       </c>
       <c r="H4">
         <v>2317.3110000000001</v>
@@ -557,10 +557,10 @@
         <v>13149.745000000001</v>
       </c>
       <c r="J4">
+        <v>1837.0250000000001</v>
+      </c>
+      <c r="K4">
         <v>13155.172</v>
-      </c>
-      <c r="K4">
-        <v>1837.0250000000001</v>
       </c>
       <c r="L4">
         <v>1844.847</v>
@@ -577,16 +577,16 @@
         <v>13120.878000000001</v>
       </c>
       <c r="D5">
+        <v>2246.2080000000001</v>
+      </c>
+      <c r="E5">
         <v>13127.634</v>
       </c>
-      <c r="E5">
+      <c r="F5">
+        <v>2559.6129999999998</v>
+      </c>
+      <c r="G5">
         <v>13127.754000000001</v>
-      </c>
-      <c r="F5">
-        <v>2246.2080000000001</v>
-      </c>
-      <c r="G5">
-        <v>2559.6129999999998</v>
       </c>
       <c r="H5">
         <v>2280.6179999999999</v>
@@ -595,10 +595,10 @@
         <v>13146.933000000001</v>
       </c>
       <c r="J5">
+        <v>1836.8119999999999</v>
+      </c>
+      <c r="K5">
         <v>13156.027</v>
-      </c>
-      <c r="K5">
-        <v>1836.8119999999999</v>
       </c>
       <c r="L5">
         <v>1813.318</v>
@@ -615,16 +615,16 @@
         <v>13113.904</v>
       </c>
       <c r="D6">
+        <v>2265.52</v>
+      </c>
+      <c r="E6">
         <v>13126.803</v>
       </c>
-      <c r="E6">
+      <c r="F6">
+        <v>2531.4299999999998</v>
+      </c>
+      <c r="G6">
         <v>13136.683999999999</v>
-      </c>
-      <c r="F6">
-        <v>2265.52</v>
-      </c>
-      <c r="G6">
-        <v>2531.4299999999998</v>
       </c>
       <c r="H6">
         <v>2286.3629999999998</v>
@@ -633,10 +633,10 @@
         <v>13145.153</v>
       </c>
       <c r="J6">
+        <v>1883.5619999999999</v>
+      </c>
+      <c r="K6">
         <v>13155.297</v>
-      </c>
-      <c r="K6">
-        <v>1883.5619999999999</v>
       </c>
       <c r="L6">
         <v>1830.009</v>
@@ -653,16 +653,16 @@
         <v>13114.525</v>
       </c>
       <c r="D7">
+        <v>2246.741</v>
+      </c>
+      <c r="E7">
         <v>13123.076999999999</v>
       </c>
-      <c r="E7">
+      <c r="F7">
+        <v>2571.0100000000002</v>
+      </c>
+      <c r="G7">
         <v>13125.323</v>
-      </c>
-      <c r="F7">
-        <v>2246.741</v>
-      </c>
-      <c r="G7">
-        <v>2571.0100000000002</v>
       </c>
       <c r="H7">
         <v>2274.25</v>
@@ -671,10 +671,10 @@
         <v>13144.249</v>
       </c>
       <c r="J7">
+        <v>1908.6220000000001</v>
+      </c>
+      <c r="K7">
         <v>13151.97</v>
-      </c>
-      <c r="K7">
-        <v>1908.6220000000001</v>
       </c>
       <c r="L7">
         <v>1854.482</v>
@@ -691,16 +691,16 @@
         <v>13118.665000000001</v>
       </c>
       <c r="D8">
+        <v>2253.0230000000001</v>
+      </c>
+      <c r="E8">
         <v>13118.550999999999</v>
       </c>
-      <c r="E8">
+      <c r="F8">
+        <v>2679.5889999999999</v>
+      </c>
+      <c r="G8">
         <v>13122.413</v>
-      </c>
-      <c r="F8">
-        <v>2253.0230000000001</v>
-      </c>
-      <c r="G8">
-        <v>2679.5889999999999</v>
       </c>
       <c r="H8">
         <v>2287.587</v>
@@ -709,10 +709,10 @@
         <v>13144.959000000001</v>
       </c>
       <c r="J8">
+        <v>1906.8420000000001</v>
+      </c>
+      <c r="K8">
         <v>13147.717000000001</v>
-      </c>
-      <c r="K8">
-        <v>1906.8420000000001</v>
       </c>
       <c r="L8">
         <v>1906.615</v>
@@ -729,16 +729,16 @@
         <v>13115.664000000001</v>
       </c>
       <c r="D9">
+        <v>2288.5329999999999</v>
+      </c>
+      <c r="E9">
         <v>13112.758</v>
       </c>
-      <c r="E9">
+      <c r="F9">
+        <v>2721.5410000000002</v>
+      </c>
+      <c r="G9">
         <v>13115.066999999999</v>
-      </c>
-      <c r="F9">
-        <v>2288.5329999999999</v>
-      </c>
-      <c r="G9">
-        <v>2721.5410000000002</v>
       </c>
       <c r="H9">
         <v>2313.2919999999999</v>
@@ -747,10 +747,10 @@
         <v>13146.944</v>
       </c>
       <c r="J9">
+        <v>1942.095</v>
+      </c>
+      <c r="K9">
         <v>13147.429</v>
-      </c>
-      <c r="K9">
-        <v>1942.095</v>
       </c>
       <c r="L9">
         <v>1952.203</v>
@@ -767,16 +767,16 @@
         <v>13113.753000000001</v>
       </c>
       <c r="D10">
+        <v>2285.4520000000002</v>
+      </c>
+      <c r="E10">
         <v>13116.151</v>
       </c>
-      <c r="E10">
+      <c r="F10">
+        <v>2698.1849999999999</v>
+      </c>
+      <c r="G10">
         <v>13118.375</v>
-      </c>
-      <c r="F10">
-        <v>2285.4520000000002</v>
-      </c>
-      <c r="G10">
-        <v>2698.1849999999999</v>
       </c>
       <c r="H10">
         <v>2312.165</v>
@@ -785,10 +785,10 @@
         <v>13143.379000000001</v>
       </c>
       <c r="J10">
+        <v>1917.1410000000001</v>
+      </c>
+      <c r="K10">
         <v>13148.627</v>
-      </c>
-      <c r="K10">
-        <v>1917.1410000000001</v>
       </c>
       <c r="L10">
         <v>1904.51</v>
@@ -805,16 +805,16 @@
         <v>13079.071</v>
       </c>
       <c r="D11">
+        <v>2480.7620000000002</v>
+      </c>
+      <c r="E11">
         <v>13085.853999999999</v>
       </c>
-      <c r="E11">
+      <c r="F11">
+        <v>2859.1909999999998</v>
+      </c>
+      <c r="G11">
         <v>13093.101000000001</v>
-      </c>
-      <c r="F11">
-        <v>2480.7620000000002</v>
-      </c>
-      <c r="G11">
-        <v>2859.1909999999998</v>
       </c>
       <c r="H11">
         <v>2456.0729999999999</v>
@@ -823,10 +823,10 @@
         <v>13115.888000000001</v>
       </c>
       <c r="J11">
+        <v>1887.9290000000001</v>
+      </c>
+      <c r="K11">
         <v>13117.429</v>
-      </c>
-      <c r="K11">
-        <v>1887.9290000000001</v>
       </c>
       <c r="L11">
         <v>1974.3009999999999</v>
@@ -843,16 +843,16 @@
         <v>13084.271000000001</v>
       </c>
       <c r="D12">
+        <v>2452.029</v>
+      </c>
+      <c r="E12">
         <v>13103.512000000001</v>
       </c>
-      <c r="E12">
+      <c r="F12">
+        <v>2831.5030000000002</v>
+      </c>
+      <c r="G12">
         <v>13092.315000000001</v>
-      </c>
-      <c r="F12">
-        <v>2452.029</v>
-      </c>
-      <c r="G12">
-        <v>2831.5030000000002</v>
       </c>
       <c r="H12">
         <v>2433.0790000000002</v>
@@ -861,10 +861,10 @@
         <v>13118.125</v>
       </c>
       <c r="J12">
+        <v>1897.798</v>
+      </c>
+      <c r="K12">
         <v>13126.666999999999</v>
-      </c>
-      <c r="K12">
-        <v>1897.798</v>
       </c>
       <c r="L12">
         <v>1943.9739999999999</v>
@@ -881,16 +881,16 @@
         <v>13096.347</v>
       </c>
       <c r="D13">
+        <v>2457.1210000000001</v>
+      </c>
+      <c r="E13">
         <v>13123.168</v>
       </c>
-      <c r="E13">
+      <c r="F13">
+        <v>2788.9580000000001</v>
+      </c>
+      <c r="G13">
         <v>13102.364</v>
-      </c>
-      <c r="F13">
-        <v>2457.1210000000001</v>
-      </c>
-      <c r="G13">
-        <v>2788.9580000000001</v>
       </c>
       <c r="H13">
         <v>2434.9839999999999</v>
@@ -899,10 +899,10 @@
         <v>13134.635</v>
       </c>
       <c r="J13">
+        <v>1904.559</v>
+      </c>
+      <c r="K13">
         <v>13140.513999999999</v>
-      </c>
-      <c r="K13">
-        <v>1904.559</v>
       </c>
       <c r="L13">
         <v>1904.454</v>
@@ -919,16 +919,16 @@
         <v>13099.272999999999</v>
       </c>
       <c r="D14">
+        <v>2466.8670000000002</v>
+      </c>
+      <c r="E14">
         <v>13125.246999999999</v>
       </c>
-      <c r="E14">
+      <c r="F14">
+        <v>2761.3710000000001</v>
+      </c>
+      <c r="G14">
         <v>13107.396000000001</v>
-      </c>
-      <c r="F14">
-        <v>2466.8670000000002</v>
-      </c>
-      <c r="G14">
-        <v>2761.3710000000001</v>
       </c>
       <c r="H14">
         <v>2440.33</v>
@@ -937,10 +937,10 @@
         <v>13133.428</v>
       </c>
       <c r="J14">
+        <v>1924.3030000000001</v>
+      </c>
+      <c r="K14">
         <v>13145.68</v>
-      </c>
-      <c r="K14">
-        <v>1924.3030000000001</v>
       </c>
       <c r="L14">
         <v>1875.4490000000001</v>
@@ -957,16 +957,16 @@
         <v>13091.733</v>
       </c>
       <c r="D15">
+        <v>2407.7860000000001</v>
+      </c>
+      <c r="E15">
         <v>13112.245000000001</v>
       </c>
-      <c r="E15">
+      <c r="F15">
+        <v>2735.652</v>
+      </c>
+      <c r="G15">
         <v>13107.651</v>
-      </c>
-      <c r="F15">
-        <v>2407.7860000000001</v>
-      </c>
-      <c r="G15">
-        <v>2735.652</v>
       </c>
       <c r="H15">
         <v>2388.4490000000001</v>
@@ -975,10 +975,10 @@
         <v>13130.986000000001</v>
       </c>
       <c r="J15">
+        <v>1901.8230000000001</v>
+      </c>
+      <c r="K15">
         <v>13138.248</v>
-      </c>
-      <c r="K15">
-        <v>1901.8230000000001</v>
       </c>
       <c r="L15">
         <v>1869.3520000000001</v>
@@ -995,16 +995,16 @@
         <v>13090.14</v>
       </c>
       <c r="D16">
+        <v>2453.9659999999999</v>
+      </c>
+      <c r="E16">
         <v>13101.155000000001</v>
       </c>
-      <c r="E16">
+      <c r="F16">
+        <v>2687.9589999999998</v>
+      </c>
+      <c r="G16">
         <v>13109.442999999999</v>
-      </c>
-      <c r="F16">
-        <v>2453.9659999999999</v>
-      </c>
-      <c r="G16">
-        <v>2687.9589999999998</v>
       </c>
       <c r="H16">
         <v>2441.2719999999999</v>
@@ -1013,10 +1013,10 @@
         <v>13134.058999999999</v>
       </c>
       <c r="J16">
+        <v>1936.604</v>
+      </c>
+      <c r="K16">
         <v>13132.716</v>
-      </c>
-      <c r="K16">
-        <v>1936.604</v>
       </c>
       <c r="L16">
         <v>1916.009</v>
@@ -1033,16 +1033,16 @@
         <v>13088.929</v>
       </c>
       <c r="D17">
+        <v>2446.4279999999999</v>
+      </c>
+      <c r="E17">
         <v>13094.504999999999</v>
       </c>
-      <c r="E17">
+      <c r="F17">
+        <v>2660.393</v>
+      </c>
+      <c r="G17">
         <v>13110.367</v>
-      </c>
-      <c r="F17">
-        <v>2446.4279999999999</v>
-      </c>
-      <c r="G17">
-        <v>2660.393</v>
       </c>
       <c r="H17">
         <v>2443.7530000000002</v>
@@ -1051,10 +1051,10 @@
         <v>13129.85</v>
       </c>
       <c r="J17">
+        <v>1950.5709999999999</v>
+      </c>
+      <c r="K17">
         <v>13134.097</v>
-      </c>
-      <c r="K17">
-        <v>1950.5709999999999</v>
       </c>
       <c r="L17">
         <v>1884.559</v>
@@ -1071,16 +1071,16 @@
         <v>13082.755999999999</v>
       </c>
       <c r="D18">
+        <v>2473.8710000000001</v>
+      </c>
+      <c r="E18">
         <v>13088.078</v>
       </c>
-      <c r="E18">
+      <c r="F18">
+        <v>2639.951</v>
+      </c>
+      <c r="G18">
         <v>13111.962</v>
-      </c>
-      <c r="F18">
-        <v>2473.8710000000001</v>
-      </c>
-      <c r="G18">
-        <v>2639.951</v>
       </c>
       <c r="H18">
         <v>2474.5250000000001</v>
@@ -1089,10 +1089,10 @@
         <v>13124.236999999999</v>
       </c>
       <c r="J18">
+        <v>2011.2739999999999</v>
+      </c>
+      <c r="K18">
         <v>13124.127</v>
-      </c>
-      <c r="K18">
-        <v>2011.2739999999999</v>
       </c>
       <c r="L18">
         <v>1846.579</v>
@@ -1109,16 +1109,16 @@
         <v>13087.949000000001</v>
       </c>
       <c r="D19">
+        <v>2401.8339999999998</v>
+      </c>
+      <c r="E19">
         <v>13091.191999999999</v>
       </c>
-      <c r="E19">
+      <c r="F19">
+        <v>2664.9430000000002</v>
+      </c>
+      <c r="G19">
         <v>13103.272000000001</v>
-      </c>
-      <c r="F19">
-        <v>2401.8339999999998</v>
-      </c>
-      <c r="G19">
-        <v>2664.9430000000002</v>
       </c>
       <c r="H19">
         <v>2402.2179999999998</v>
@@ -1127,10 +1127,10 @@
         <v>13112.78</v>
       </c>
       <c r="J19">
+        <v>2003.1279999999999</v>
+      </c>
+      <c r="K19">
         <v>13121.321</v>
-      </c>
-      <c r="K19">
-        <v>2003.1279999999999</v>
       </c>
       <c r="L19">
         <v>1895.6120000000001</v>
@@ -1147,16 +1147,16 @@
         <v>13070.164000000001</v>
       </c>
       <c r="D20">
+        <v>2437.2539999999999</v>
+      </c>
+      <c r="E20">
         <v>13096.112999999999</v>
       </c>
-      <c r="E20">
+      <c r="F20">
+        <v>2736.5239999999999</v>
+      </c>
+      <c r="G20">
         <v>13093.843000000001</v>
-      </c>
-      <c r="F20">
-        <v>2437.2539999999999</v>
-      </c>
-      <c r="G20">
-        <v>2736.5239999999999</v>
       </c>
       <c r="H20">
         <v>2421.52</v>
@@ -1165,10 +1165,10 @@
         <v>13114.371999999999</v>
       </c>
       <c r="J20">
+        <v>2016.2919999999999</v>
+      </c>
+      <c r="K20">
         <v>13125.977999999999</v>
-      </c>
-      <c r="K20">
-        <v>2016.2919999999999</v>
       </c>
       <c r="L20">
         <v>1929.0129999999999</v>
@@ -1185,16 +1185,16 @@
         <v>13082.413</v>
       </c>
       <c r="D21">
+        <v>2501.5540000000001</v>
+      </c>
+      <c r="E21">
         <v>13094.511</v>
       </c>
-      <c r="E21">
+      <c r="F21">
+        <v>2845.627</v>
+      </c>
+      <c r="G21">
         <v>13086.237999999999</v>
-      </c>
-      <c r="F21">
-        <v>2501.5540000000001</v>
-      </c>
-      <c r="G21">
-        <v>2845.627</v>
       </c>
       <c r="H21">
         <v>2469.7489999999998</v>
@@ -1203,10 +1203,10 @@
         <v>13115.234</v>
       </c>
       <c r="J21">
+        <v>2015.556</v>
+      </c>
+      <c r="K21">
         <v>13127.371999999999</v>
-      </c>
-      <c r="K21">
-        <v>2015.556</v>
       </c>
       <c r="L21">
         <v>1983.1880000000001</v>
@@ -1223,16 +1223,16 @@
         <v>13063.955</v>
       </c>
       <c r="D22">
+        <v>2611.4119999999998</v>
+      </c>
+      <c r="E22">
         <v>13083.989</v>
       </c>
-      <c r="E22">
+      <c r="F22">
+        <v>2933.3</v>
+      </c>
+      <c r="G22">
         <v>13080.571</v>
-      </c>
-      <c r="F22">
-        <v>2611.4119999999998</v>
-      </c>
-      <c r="G22">
-        <v>2933.3</v>
       </c>
       <c r="H22">
         <v>2569.6610000000001</v>
@@ -1241,10 +1241,10 @@
         <v>13108.659</v>
       </c>
       <c r="J22">
+        <v>2108.1060000000002</v>
+      </c>
+      <c r="K22">
         <v>13115.718999999999</v>
-      </c>
-      <c r="K22">
-        <v>2108.1060000000002</v>
       </c>
       <c r="L22">
         <v>2069.366</v>
@@ -1261,16 +1261,16 @@
         <v>13064.905000000001</v>
       </c>
       <c r="D23">
+        <v>2661.2069999999999</v>
+      </c>
+      <c r="E23">
         <v>13075.406999999999</v>
       </c>
-      <c r="E23">
+      <c r="F23">
+        <v>2949.1280000000002</v>
+      </c>
+      <c r="G23">
         <v>13079.722</v>
-      </c>
-      <c r="F23">
-        <v>2661.2069999999999</v>
-      </c>
-      <c r="G23">
-        <v>2949.1280000000002</v>
       </c>
       <c r="H23">
         <v>2620.6790000000001</v>
@@ -1279,10 +1279,10 @@
         <v>13110.822</v>
       </c>
       <c r="J23">
+        <v>2104.52</v>
+      </c>
+      <c r="K23">
         <v>13109.849</v>
-      </c>
-      <c r="K23">
-        <v>2104.52</v>
       </c>
       <c r="L23">
         <v>2114.4760000000001</v>
@@ -1299,16 +1299,16 @@
         <v>13065.053</v>
       </c>
       <c r="D24">
+        <v>2624.74</v>
+      </c>
+      <c r="E24">
         <v>13073.12</v>
       </c>
-      <c r="E24">
+      <c r="F24">
+        <v>2901.6849999999999</v>
+      </c>
+      <c r="G24">
         <v>13086.457</v>
-      </c>
-      <c r="F24">
-        <v>2624.74</v>
-      </c>
-      <c r="G24">
-        <v>2901.6849999999999</v>
       </c>
       <c r="H24">
         <v>2555.3490000000002</v>
@@ -1317,10 +1317,10 @@
         <v>13112.156999999999</v>
       </c>
       <c r="J24">
+        <v>2064.1309999999999</v>
+      </c>
+      <c r="K24">
         <v>13113.664000000001</v>
-      </c>
-      <c r="K24">
-        <v>2064.1309999999999</v>
       </c>
       <c r="L24">
         <v>2072.7190000000001</v>
@@ -1337,16 +1337,16 @@
         <v>13076.721</v>
       </c>
       <c r="D25">
+        <v>2540.2440000000001</v>
+      </c>
+      <c r="E25">
         <v>13074.984</v>
       </c>
-      <c r="E25">
+      <c r="F25">
+        <v>2878.1869999999999</v>
+      </c>
+      <c r="G25">
         <v>13089.078</v>
-      </c>
-      <c r="F25">
-        <v>2540.2440000000001</v>
-      </c>
-      <c r="G25">
-        <v>2878.1869999999999</v>
       </c>
       <c r="H25">
         <v>2474.393</v>
@@ -1355,10 +1355,10 @@
         <v>13118.334999999999</v>
       </c>
       <c r="J25">
+        <v>1980.2349999999999</v>
+      </c>
+      <c r="K25">
         <v>13111.321</v>
-      </c>
-      <c r="K25">
-        <v>1980.2349999999999</v>
       </c>
       <c r="L25">
         <v>2030.3</v>
@@ -1375,16 +1375,16 @@
         <v>13079.204</v>
       </c>
       <c r="D26">
+        <v>2511.2040000000002</v>
+      </c>
+      <c r="E26">
         <v>13075.217000000001</v>
       </c>
-      <c r="E26">
+      <c r="F26">
+        <v>2853</v>
+      </c>
+      <c r="G26">
         <v>13088.904</v>
-      </c>
-      <c r="F26">
-        <v>2511.2040000000002</v>
-      </c>
-      <c r="G26">
-        <v>2853</v>
       </c>
       <c r="H26">
         <v>2458.473</v>
@@ -1393,10 +1393,10 @@
         <v>13119.74</v>
       </c>
       <c r="J26">
+        <v>1936.117</v>
+      </c>
+      <c r="K26">
         <v>13117.201999999999</v>
-      </c>
-      <c r="K26">
-        <v>1936.117</v>
       </c>
       <c r="L26">
         <v>1987.0160000000001</v>
@@ -1413,16 +1413,16 @@
         <v>13103.210999999999</v>
       </c>
       <c r="D27">
+        <v>2883.0940000000001</v>
+      </c>
+      <c r="E27">
         <v>13116.165000000001</v>
       </c>
-      <c r="E27">
+      <c r="F27">
+        <v>3445.4029999999998</v>
+      </c>
+      <c r="G27">
         <v>13116.566000000001</v>
-      </c>
-      <c r="F27">
-        <v>2883.0940000000001</v>
-      </c>
-      <c r="G27">
-        <v>3445.4029999999998</v>
       </c>
       <c r="H27">
         <v>2719.692</v>
@@ -1431,10 +1431,10 @@
         <v>13140.94</v>
       </c>
       <c r="J27">
+        <v>1615.6279999999999</v>
+      </c>
+      <c r="K27">
         <v>13135.337</v>
-      </c>
-      <c r="K27">
-        <v>1615.6279999999999</v>
       </c>
       <c r="L27">
         <v>1871.5160000000001</v>
@@ -1451,16 +1451,16 @@
         <v>13108.365</v>
       </c>
       <c r="D28">
+        <v>2795.0279999999998</v>
+      </c>
+      <c r="E28">
         <v>13133.539000000001</v>
       </c>
-      <c r="E28">
+      <c r="F28">
+        <v>3457.9520000000002</v>
+      </c>
+      <c r="G28">
         <v>13117.347</v>
-      </c>
-      <c r="F28">
-        <v>2795.0279999999998</v>
-      </c>
-      <c r="G28">
-        <v>3457.9520000000002</v>
       </c>
       <c r="H28">
         <v>2640.5889999999999</v>
@@ -1469,10 +1469,10 @@
         <v>13141.344999999999</v>
       </c>
       <c r="J28">
+        <v>1620.624</v>
+      </c>
+      <c r="K28">
         <v>13140.918</v>
-      </c>
-      <c r="K28">
-        <v>1620.624</v>
       </c>
       <c r="L28">
         <v>1884.9949999999999</v>
@@ -1489,16 +1489,16 @@
         <v>13127.264999999999</v>
       </c>
       <c r="D29">
+        <v>2767.857</v>
+      </c>
+      <c r="E29">
         <v>13159.120999999999</v>
       </c>
-      <c r="E29">
+      <c r="F29">
+        <v>3403.49</v>
+      </c>
+      <c r="G29">
         <v>13126.853999999999</v>
-      </c>
-      <c r="F29">
-        <v>2767.857</v>
-      </c>
-      <c r="G29">
-        <v>3403.49</v>
       </c>
       <c r="H29">
         <v>2625.346</v>
@@ -1507,10 +1507,10 @@
         <v>13151.186</v>
       </c>
       <c r="J29">
+        <v>1666.202</v>
+      </c>
+      <c r="K29">
         <v>13157.268</v>
-      </c>
-      <c r="K29">
-        <v>1666.202</v>
       </c>
       <c r="L29">
         <v>1837.64</v>
@@ -1527,16 +1527,16 @@
         <v>13131.958000000001</v>
       </c>
       <c r="D30">
+        <v>2854.4850000000001</v>
+      </c>
+      <c r="E30">
         <v>13175.28</v>
       </c>
-      <c r="E30">
+      <c r="F30">
+        <v>3280.9209999999998</v>
+      </c>
+      <c r="G30">
         <v>13143.896000000001</v>
-      </c>
-      <c r="F30">
-        <v>2854.4850000000001</v>
-      </c>
-      <c r="G30">
-        <v>3280.9209999999998</v>
       </c>
       <c r="H30">
         <v>2739.91</v>
@@ -1545,10 +1545,10 @@
         <v>13162.063</v>
       </c>
       <c r="J30">
+        <v>1780.94</v>
+      </c>
+      <c r="K30">
         <v>13168.885</v>
-      </c>
-      <c r="K30">
-        <v>1780.94</v>
       </c>
       <c r="L30">
         <v>1760.19</v>
@@ -1565,16 +1565,16 @@
         <v>13124.866</v>
       </c>
       <c r="D31">
+        <v>2852.663</v>
+      </c>
+      <c r="E31">
         <v>13177.938</v>
       </c>
-      <c r="E31">
+      <c r="F31">
+        <v>3226.4870000000001</v>
+      </c>
+      <c r="G31">
         <v>13142.567999999999</v>
-      </c>
-      <c r="F31">
-        <v>2852.663</v>
-      </c>
-      <c r="G31">
-        <v>3226.4870000000001</v>
       </c>
       <c r="H31">
         <v>2721.5940000000001</v>
@@ -1583,10 +1583,10 @@
         <v>13159.710999999999</v>
       </c>
       <c r="J31">
+        <v>1803.854</v>
+      </c>
+      <c r="K31">
         <v>13180.865</v>
-      </c>
-      <c r="K31">
-        <v>1803.854</v>
       </c>
       <c r="L31">
         <v>1751.4469999999999</v>
@@ -1603,16 +1603,16 @@
         <v>13123.987999999999</v>
       </c>
       <c r="D32">
+        <v>2800.0990000000002</v>
+      </c>
+      <c r="E32">
         <v>13167.352000000001</v>
       </c>
-      <c r="E32">
+      <c r="F32">
+        <v>3209.0639999999999</v>
+      </c>
+      <c r="G32">
         <v>13133.799000000001</v>
-      </c>
-      <c r="F32">
-        <v>2800.0990000000002</v>
-      </c>
-      <c r="G32">
-        <v>3209.0639999999999</v>
       </c>
       <c r="H32">
         <v>2673.3829999999998</v>
@@ -1621,10 +1621,10 @@
         <v>13150.710999999999</v>
       </c>
       <c r="J32">
+        <v>1782.0820000000001</v>
+      </c>
+      <c r="K32">
         <v>13173.206</v>
-      </c>
-      <c r="K32">
-        <v>1782.0820000000001</v>
       </c>
       <c r="L32">
         <v>1775.9090000000001</v>
@@ -1641,16 +1641,16 @@
         <v>13119.112999999999</v>
       </c>
       <c r="D33">
+        <v>2818.1219999999998</v>
+      </c>
+      <c r="E33">
         <v>13153.379000000001</v>
       </c>
-      <c r="E33">
+      <c r="F33">
+        <v>3120.7</v>
+      </c>
+      <c r="G33">
         <v>13135.413</v>
-      </c>
-      <c r="F33">
-        <v>2818.1219999999998</v>
-      </c>
-      <c r="G33">
-        <v>3120.7</v>
       </c>
       <c r="H33">
         <v>2685.2139999999999</v>
@@ -1659,10 +1659,10 @@
         <v>13149.156999999999</v>
       </c>
       <c r="J33">
+        <v>1799.809</v>
+      </c>
+      <c r="K33">
         <v>13159.466</v>
-      </c>
-      <c r="K33">
-        <v>1799.809</v>
       </c>
       <c r="L33">
         <v>1760.7180000000001</v>
@@ -1679,16 +1679,16 @@
         <v>13110.369000000001</v>
       </c>
       <c r="D34">
+        <v>2879.8809999999999</v>
+      </c>
+      <c r="E34">
         <v>13136.002</v>
       </c>
-      <c r="E34">
+      <c r="F34">
+        <v>3070.78</v>
+      </c>
+      <c r="G34">
         <v>13133.253000000001</v>
-      </c>
-      <c r="F34">
-        <v>2879.8809999999999</v>
-      </c>
-      <c r="G34">
-        <v>3070.78</v>
       </c>
       <c r="H34">
         <v>2755.61</v>
@@ -1697,10 +1697,10 @@
         <v>13153.703</v>
       </c>
       <c r="J34">
+        <v>1793.124</v>
+      </c>
+      <c r="K34">
         <v>13157.332</v>
-      </c>
-      <c r="K34">
-        <v>1793.124</v>
       </c>
       <c r="L34">
         <v>1770.6010000000001</v>
@@ -1717,16 +1717,16 @@
         <v>13117.386</v>
       </c>
       <c r="D35">
+        <v>2954.337</v>
+      </c>
+      <c r="E35">
         <v>13127.09</v>
       </c>
-      <c r="E35">
+      <c r="F35">
+        <v>3061.5880000000002</v>
+      </c>
+      <c r="G35">
         <v>13141.804</v>
-      </c>
-      <c r="F35">
-        <v>2954.337</v>
-      </c>
-      <c r="G35">
-        <v>3061.5880000000002</v>
       </c>
       <c r="H35">
         <v>2827.3510000000001</v>
@@ -1735,10 +1735,10 @@
         <v>13154.091</v>
       </c>
       <c r="J35">
+        <v>1814.8869999999999</v>
+      </c>
+      <c r="K35">
         <v>13148.456</v>
-      </c>
-      <c r="K35">
-        <v>1814.8869999999999</v>
       </c>
       <c r="L35">
         <v>1796.153</v>
@@ -1755,16 +1755,16 @@
         <v>13127.334000000001</v>
       </c>
       <c r="D36">
+        <v>3016.1779999999999</v>
+      </c>
+      <c r="E36">
         <v>13121.485000000001</v>
       </c>
-      <c r="E36">
+      <c r="F36">
+        <v>2944.107</v>
+      </c>
+      <c r="G36">
         <v>13148.295</v>
-      </c>
-      <c r="F36">
-        <v>3016.1779999999999</v>
-      </c>
-      <c r="G36">
-        <v>2944.107</v>
       </c>
       <c r="H36">
         <v>2884.1840000000002</v>
@@ -1773,10 +1773,10 @@
         <v>13157.661</v>
       </c>
       <c r="J36">
+        <v>1856.1420000000001</v>
+      </c>
+      <c r="K36">
         <v>13156.337</v>
-      </c>
-      <c r="K36">
-        <v>1856.1420000000001</v>
       </c>
       <c r="L36">
         <v>1650.9739999999999</v>
@@ -1793,16 +1793,16 @@
         <v>13113.394</v>
       </c>
       <c r="D37">
+        <v>3027.7620000000002</v>
+      </c>
+      <c r="E37">
         <v>13114.114</v>
       </c>
-      <c r="E37">
+      <c r="F37">
+        <v>2915.8040000000001</v>
+      </c>
+      <c r="G37">
         <v>13144.632</v>
-      </c>
-      <c r="F37">
-        <v>3027.7620000000002</v>
-      </c>
-      <c r="G37">
-        <v>2915.8040000000001</v>
       </c>
       <c r="H37">
         <v>2893.5720000000001</v>
@@ -1811,10 +1811,10 @@
         <v>13142.748</v>
       </c>
       <c r="J37">
+        <v>1883.9680000000001</v>
+      </c>
+      <c r="K37">
         <v>13141.459000000001</v>
-      </c>
-      <c r="K37">
-        <v>1883.9680000000001</v>
       </c>
       <c r="L37">
         <v>1559.904</v>
@@ -1831,16 +1831,16 @@
         <v>13084.896000000001</v>
       </c>
       <c r="D38">
+        <v>3024.0909999999999</v>
+      </c>
+      <c r="E38">
         <v>13105.063</v>
       </c>
-      <c r="E38">
+      <c r="F38">
+        <v>2984.645</v>
+      </c>
+      <c r="G38">
         <v>13134.44</v>
-      </c>
-      <c r="F38">
-        <v>3024.0909999999999</v>
-      </c>
-      <c r="G38">
-        <v>2984.645</v>
       </c>
       <c r="H38">
         <v>2913.7759999999998</v>
@@ -1849,10 +1849,10 @@
         <v>13123.003000000001</v>
       </c>
       <c r="J38">
+        <v>1900.8920000000001</v>
+      </c>
+      <c r="K38">
         <v>13129.092000000001</v>
-      </c>
-      <c r="K38">
-        <v>1900.8920000000001</v>
       </c>
       <c r="L38">
         <v>1587.6579999999999</v>
@@ -1869,16 +1869,16 @@
         <v>13093.01</v>
       </c>
       <c r="D39">
+        <v>2932.3339999999998</v>
+      </c>
+      <c r="E39">
         <v>13110.749</v>
       </c>
-      <c r="E39">
+      <c r="F39">
+        <v>3039.473</v>
+      </c>
+      <c r="G39">
         <v>13125.165000000001</v>
-      </c>
-      <c r="F39">
-        <v>2932.3339999999998</v>
-      </c>
-      <c r="G39">
-        <v>3039.473</v>
       </c>
       <c r="H39">
         <v>2842.7660000000001</v>
@@ -1887,10 +1887,10 @@
         <v>13113.308999999999</v>
       </c>
       <c r="J39">
+        <v>1859.9069999999999</v>
+      </c>
+      <c r="K39">
         <v>13129.723</v>
-      </c>
-      <c r="K39">
-        <v>1859.9069999999999</v>
       </c>
       <c r="L39">
         <v>1566.932</v>
@@ -1907,16 +1907,16 @@
         <v>13081.763999999999</v>
       </c>
       <c r="D40">
+        <v>2875.864</v>
+      </c>
+      <c r="E40">
         <v>13121.409</v>
       </c>
-      <c r="E40">
+      <c r="F40">
+        <v>3133.34</v>
+      </c>
+      <c r="G40">
         <v>13112.066000000001</v>
-      </c>
-      <c r="F40">
-        <v>2875.864</v>
-      </c>
-      <c r="G40">
-        <v>3133.34</v>
       </c>
       <c r="H40">
         <v>2785.6680000000001</v>
@@ -1925,10 +1925,10 @@
         <v>13119.982</v>
       </c>
       <c r="J40">
+        <v>1810.4349999999999</v>
+      </c>
+      <c r="K40">
         <v>13134.625</v>
-      </c>
-      <c r="K40">
-        <v>1810.4349999999999</v>
       </c>
       <c r="L40">
         <v>1554.664</v>
@@ -1945,16 +1945,16 @@
         <v>13079.563</v>
       </c>
       <c r="D41">
+        <v>2922.7049999999999</v>
+      </c>
+      <c r="E41">
         <v>13126.088</v>
       </c>
-      <c r="E41">
+      <c r="F41">
+        <v>3376.0450000000001</v>
+      </c>
+      <c r="G41">
         <v>13102.303</v>
-      </c>
-      <c r="F41">
-        <v>2922.7049999999999</v>
-      </c>
-      <c r="G41">
-        <v>3376.0450000000001</v>
       </c>
       <c r="H41">
         <v>2814.317</v>
@@ -1963,10 +1963,10 @@
         <v>13118.502</v>
       </c>
       <c r="J41">
+        <v>1819.7339999999999</v>
+      </c>
+      <c r="K41">
         <v>13137.886</v>
-      </c>
-      <c r="K41">
-        <v>1819.7339999999999</v>
       </c>
       <c r="L41">
         <v>1645.54</v>
@@ -1983,16 +1983,16 @@
         <v>13077.421</v>
       </c>
       <c r="D42">
+        <v>3038.6210000000001</v>
+      </c>
+      <c r="E42">
         <v>13129.026</v>
       </c>
-      <c r="E42">
+      <c r="F42">
+        <v>3548.2779999999998</v>
+      </c>
+      <c r="G42">
         <v>13085.800999999999</v>
-      </c>
-      <c r="F42">
-        <v>3038.6210000000001</v>
-      </c>
-      <c r="G42">
-        <v>3548.2779999999998</v>
       </c>
       <c r="H42">
         <v>2892.2910000000002</v>
@@ -2001,10 +2001,10 @@
         <v>13113.598</v>
       </c>
       <c r="J42">
+        <v>1847.462</v>
+      </c>
+      <c r="K42">
         <v>13141.130999999999</v>
-      </c>
-      <c r="K42">
-        <v>1847.462</v>
       </c>
       <c r="L42">
         <v>1721.808</v>
@@ -2021,16 +2021,16 @@
         <v>13074.61</v>
       </c>
       <c r="D43">
+        <v>3186.93</v>
+      </c>
+      <c r="E43">
         <v>13123.162</v>
       </c>
-      <c r="E43">
+      <c r="F43">
+        <v>3716.2489999999998</v>
+      </c>
+      <c r="G43">
         <v>13087.715</v>
-      </c>
-      <c r="F43">
-        <v>3186.93</v>
-      </c>
-      <c r="G43">
-        <v>3716.2489999999998</v>
       </c>
       <c r="H43">
         <v>3007.1170000000002</v>
@@ -2039,10 +2039,10 @@
         <v>13117.859</v>
       </c>
       <c r="J43">
+        <v>1915.87</v>
+      </c>
+      <c r="K43">
         <v>13142.45</v>
-      </c>
-      <c r="K43">
-        <v>1915.87</v>
       </c>
       <c r="L43">
         <v>1845.4490000000001</v>
@@ -2059,16 +2059,16 @@
         <v>13070.437</v>
       </c>
       <c r="D44">
+        <v>3396.9949999999999</v>
+      </c>
+      <c r="E44">
         <v>13115.737999999999</v>
       </c>
-      <c r="E44">
+      <c r="F44">
+        <v>3786.761</v>
+      </c>
+      <c r="G44">
         <v>13084.063</v>
-      </c>
-      <c r="F44">
-        <v>3396.9949999999999</v>
-      </c>
-      <c r="G44">
-        <v>3786.761</v>
       </c>
       <c r="H44">
         <v>3196.009</v>
@@ -2077,10 +2077,10 @@
         <v>13112.538</v>
       </c>
       <c r="J44">
+        <v>2014.788</v>
+      </c>
+      <c r="K44">
         <v>13134.302</v>
-      </c>
-      <c r="K44">
-        <v>2014.788</v>
       </c>
       <c r="L44">
         <v>1960.598</v>
@@ -2097,16 +2097,16 @@
         <v>13071.371999999999</v>
       </c>
       <c r="D45">
+        <v>3451.3989999999999</v>
+      </c>
+      <c r="E45">
         <v>13102.312</v>
       </c>
-      <c r="E45">
+      <c r="F45">
+        <v>3756.4450000000002</v>
+      </c>
+      <c r="G45">
         <v>13074.761</v>
-      </c>
-      <c r="F45">
-        <v>3451.3989999999999</v>
-      </c>
-      <c r="G45">
-        <v>3756.4450000000002</v>
       </c>
       <c r="H45">
         <v>3235.866</v>
@@ -2115,10 +2115,10 @@
         <v>13108.41</v>
       </c>
       <c r="J45">
+        <v>1984.12</v>
+      </c>
+      <c r="K45">
         <v>13130.4</v>
-      </c>
-      <c r="K45">
-        <v>1984.12</v>
       </c>
       <c r="L45">
         <v>2020.4390000000001</v>
@@ -2135,16 +2135,16 @@
         <v>13093.766</v>
       </c>
       <c r="D46">
+        <v>3457.547</v>
+      </c>
+      <c r="E46">
         <v>13111.597</v>
       </c>
-      <c r="E46">
+      <c r="F46">
+        <v>3685.2420000000002</v>
+      </c>
+      <c r="G46">
         <v>13098.217000000001</v>
-      </c>
-      <c r="F46">
-        <v>3457.547</v>
-      </c>
-      <c r="G46">
-        <v>3685.2420000000002</v>
       </c>
       <c r="H46">
         <v>3206.0410000000002</v>
@@ -2153,10 +2153,10 @@
         <v>13127.995000000001</v>
       </c>
       <c r="J46">
+        <v>1896.4939999999999</v>
+      </c>
+      <c r="K46">
         <v>13137.619000000001</v>
-      </c>
-      <c r="K46">
-        <v>1896.4939999999999</v>
       </c>
       <c r="L46">
         <v>1966.9659999999999</v>
@@ -2173,16 +2173,16 @@
         <v>13091.828</v>
       </c>
       <c r="D47">
+        <v>3337.9140000000002</v>
+      </c>
+      <c r="E47">
         <v>13097.041999999999</v>
       </c>
-      <c r="E47">
+      <c r="F47">
+        <v>3563.7620000000002</v>
+      </c>
+      <c r="G47">
         <v>13089.496999999999</v>
-      </c>
-      <c r="F47">
-        <v>3337.9140000000002</v>
-      </c>
-      <c r="G47">
-        <v>3563.7620000000002</v>
       </c>
       <c r="H47">
         <v>3082.4229999999998</v>
@@ -2191,10 +2191,10 @@
         <v>13121.41</v>
       </c>
       <c r="J47">
+        <v>1822.1669999999999</v>
+      </c>
+      <c r="K47">
         <v>13125.717000000001</v>
-      </c>
-      <c r="K47">
-        <v>1822.1669999999999</v>
       </c>
       <c r="L47">
         <v>1910.452</v>
@@ -2211,16 +2211,16 @@
         <v>13094.375</v>
       </c>
       <c r="D48">
+        <v>3193.15</v>
+      </c>
+      <c r="E48">
         <v>13095.308999999999</v>
       </c>
-      <c r="E48">
+      <c r="F48">
+        <v>3396.78</v>
+      </c>
+      <c r="G48">
         <v>13108.779</v>
-      </c>
-      <c r="F48">
-        <v>3193.15</v>
-      </c>
-      <c r="G48">
-        <v>3396.78</v>
       </c>
       <c r="H48">
         <v>2968.0889999999999</v>
@@ -2229,10 +2229,10 @@
         <v>13130.312</v>
       </c>
       <c r="J48">
+        <v>1733.4670000000001</v>
+      </c>
+      <c r="K48">
         <v>13134.415000000001</v>
-      </c>
-      <c r="K48">
-        <v>1733.4670000000001</v>
       </c>
       <c r="L48">
         <v>1833.9459999999999</v>
@@ -2249,16 +2249,16 @@
         <v>13093.054</v>
       </c>
       <c r="D49">
+        <v>3016.4609999999998</v>
+      </c>
+      <c r="E49">
         <v>13092.603999999999</v>
       </c>
-      <c r="E49">
+      <c r="F49">
+        <v>3397.7310000000002</v>
+      </c>
+      <c r="G49">
         <v>13110.168</v>
-      </c>
-      <c r="F49">
-        <v>3016.4609999999998</v>
-      </c>
-      <c r="G49">
-        <v>3397.7310000000002</v>
       </c>
       <c r="H49">
         <v>2828.7220000000002</v>
@@ -2267,10 +2267,10 @@
         <v>13135.019</v>
       </c>
       <c r="J49">
+        <v>1625.4090000000001</v>
+      </c>
+      <c r="K49">
         <v>13134.134</v>
-      </c>
-      <c r="K49">
-        <v>1625.4090000000001</v>
       </c>
       <c r="L49">
         <v>1838.885</v>
@@ -2287,16 +2287,16 @@
         <v>13097.941000000001</v>
       </c>
       <c r="D50">
+        <v>2939.6469999999999</v>
+      </c>
+      <c r="E50">
         <v>13098.834999999999</v>
       </c>
-      <c r="E50">
+      <c r="F50">
+        <v>3444.8969999999999</v>
+      </c>
+      <c r="G50">
         <v>13113.196</v>
-      </c>
-      <c r="F50">
-        <v>2939.6469999999999</v>
-      </c>
-      <c r="G50">
-        <v>3444.8969999999999</v>
       </c>
       <c r="H50">
         <v>2768.4180000000001</v>
@@ -2305,10 +2305,10 @@
         <v>13140.701999999999</v>
       </c>
       <c r="J50">
+        <v>1603.02</v>
+      </c>
+      <c r="K50">
         <v>13131.75</v>
-      </c>
-      <c r="K50">
-        <v>1603.02</v>
       </c>
       <c r="L50">
         <v>1860.278</v>
